--- a/biology/Microbiologie/Leifsonia/Leifsonia.xlsx
+++ b/biology/Microbiologie/Leifsonia/Leifsonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leifsonia est un genre de protéobactéries de la famille des Microbacteriaceae.
-Ce genre regroupe une quinzaine d'espèces. L'espèce type est Leifsonia aquatica[1].
+Ce genre regroupe une quinzaine d'espèces. L'espèce type est Leifsonia aquatica.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 août 2014) :
 Leifsonia aquatica
 Leifsonia aurea
 Leifsonia cynodontis
@@ -550,9 +564,11 @@
           <t>Liste des espèces, sous-espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 août 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 août 2014) :
 Leifsonia antarctica
 Leifsonia aquatica
 non-classé Leifsonia aquatica ATCC 14665
